--- a/public/UsersData/update-import-pengguna.xlsx
+++ b/public/UsersData/update-import-pengguna.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCC16B-460F-495B-A8D6-D40487201341}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>nama</t>
   </si>
@@ -41,13 +40,34 @@
   </si>
   <si>
     <t>Publik</t>
+  </si>
+  <si>
+    <t>seiya1@gmail.com</t>
+  </si>
+  <si>
+    <t>seiya2@gmail.com</t>
+  </si>
+  <si>
+    <t>seiya3@gmail.com</t>
+  </si>
+  <si>
+    <t>seiya4@gmail.com</t>
+  </si>
+  <si>
+    <t>seiya5@gmail.com</t>
+  </si>
+  <si>
+    <t>seiya6@gmail.com</t>
+  </si>
+  <si>
+    <t>seiya7@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -57,6 +77,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,14 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -104,7 +135,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -123,7 +153,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -142,7 +171,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -161,7 +189,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -180,7 +207,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -199,12 +225,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B75D80C-2F1C-4508-A442-15D9F974BE1F}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:C2" xr:uid="{71F3430D-F559-4802-AD4B-EC14D46A616E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{39DE176E-DA65-4CA6-A10D-1AF6094135ED}" name="nama" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{90D2EC48-7B97-4C81-9648-898994D9E69F}" name="email" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FF4B6CFF-8F60-4C0D-8882-0F7F28B4C1A1}" name="role pengguna" dataDxfId="2"/>
+    <tableColumn id="1" name="nama" dataDxfId="2"/>
+    <tableColumn id="2" name="email" dataDxfId="1"/>
+    <tableColumn id="3" name="role pengguna" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,14 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -445,11 +471,97 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>